--- a/data/031024/5pct/FreqSweep.xlsx
+++ b/data/031024/5pct/FreqSweep.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrus.kirsten\PycharmProjects\RheometerPlots\data\031024\5pct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45504B8C-79E2-4C2A-900E-27C256C415CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table p. 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table p. 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true" refMode="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>t in s</t>
   </si>
   <si>
@@ -262,30 +266,30 @@
   </si>
   <si>
     <t>3-11</t>
+  </si>
+  <si>
+    <t>Seg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00;-#,##0.00"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,34 +309,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -340,143 +349,452 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3990975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="904875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView zoomScale="100" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44921875" customWidth="true"/>
-    <col min="2" max="2" width="7.44921875" customWidth="true"/>
-    <col min="3" max="3" width="7.44921875" customWidth="true"/>
-    <col min="4" max="4" width="7.44921875" customWidth="true"/>
-    <col min="5" max="5" width="7.44921875" customWidth="true"/>
-    <col min="6" max="6" width="7.44921875" customWidth="true"/>
-    <col min="7" max="7" width="7.44921875" customWidth="true"/>
-    <col min="8" max="8" width="7.44921875" customWidth="true"/>
-    <col min="9" max="9" width="7.44921875" customWidth="true"/>
-    <col min="10" max="10" width="7.44921875" customWidth="true"/>
-    <col min="11" max="11" width="7.44921875" customWidth="true"/>
-    <col min="12" max="12" width="7.44921875" customWidth="true"/>
-    <col min="13" max="13" width="1.4765625" customWidth="true"/>
+    <col min="1" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="374" customHeight="true"/>
-    <row r="2" ht="17.714" customHeight="true">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="17.714" customHeight="true">
+      <c r="B2" s="4">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>-1.18E-4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4">
-        <v>8.7899999999999991</v>
+        <v>9.82</v>
       </c>
       <c r="C3" s="4">
-        <v>1.04</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -497,24 +815,24 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.14999999999999999</v>
+        <v>-0.16</v>
       </c>
       <c r="K3" s="4">
-        <v>-0.000118</v>
+        <v>-6.7199999999999994E-5</v>
       </c>
       <c r="L3" s="4">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="4" ht="17.714" customHeight="true">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>9.8200000000000003</v>
+        <v>10.9</v>
       </c>
       <c r="C4" s="4">
-        <v>2.0699999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -535,24 +853,24 @@
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="K4" s="4">
-        <v>-6.7199999999999994e-005</v>
+        <v>-2.3799999999999999E-5</v>
       </c>
       <c r="L4" s="4">
-        <v>0.0118</v>
-      </c>
-    </row>
-    <row r="5" ht="17.714" customHeight="true">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="C5" s="4">
-        <v>3.1000000000000001</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -573,24 +891,24 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>-0.17000000000000001</v>
+        <v>-0.17</v>
       </c>
       <c r="K5" s="4">
-        <v>-2.3799999999999999e-005</v>
+        <v>2.12E-5</v>
       </c>
       <c r="L5" s="4">
-        <v>0.010800000000000001</v>
-      </c>
-    </row>
-    <row r="6" ht="17.714" customHeight="true">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="C6" s="4">
-        <v>4.1399999999999997</v>
+        <v>5.18</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -611,24 +929,24 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>-0.17000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="K6" s="4">
-        <v>2.12e-005</v>
+        <v>6.0699999999999998E-5</v>
       </c>
       <c r="L6" s="4">
-        <v>0.0114</v>
-      </c>
-    </row>
-    <row r="7" ht="17.714" customHeight="true">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
-        <v>5.1799999999999997</v>
+        <v>6.21</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -649,24 +967,24 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="K7" s="4">
-        <v>6.0699999999999998e-005</v>
+        <v>8.6700000000000007E-5</v>
       </c>
       <c r="L7" s="4">
-        <v>0.0132</v>
-      </c>
-    </row>
-    <row r="8" ht="17.714" customHeight="true">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>6.21</v>
+        <v>7.24</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -687,24 +1005,24 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>-0.14999999999999999</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>8.6700000000000007e-005</v>
+        <v>1.15E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>0.0146</v>
-      </c>
-    </row>
-    <row r="9" ht="17.714" customHeight="true">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
-        <v>7.2400000000000002</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -725,24 +1043,24 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="K9" s="4">
-        <v>0.000115</v>
+        <v>1.55E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>0.0111</v>
-      </c>
-    </row>
-    <row r="10" ht="17.714" customHeight="true">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4">
-        <v>16</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C10" s="4">
-        <v>8.2799999999999994</v>
+        <v>9.31</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -763,24 +1081,24 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="K10" s="4">
-        <v>0.000155</v>
+        <v>2.13E-4</v>
       </c>
       <c r="L10" s="4">
-        <v>0.0124</v>
-      </c>
-    </row>
-    <row r="11" ht="17.714" customHeight="true">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>17.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C11" s="4">
-        <v>9.3100000000000005</v>
+        <v>10.3</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -801,24 +1119,24 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>-0.11</v>
+        <v>-8.6900000000000005E-2</v>
       </c>
       <c r="K11" s="4">
-        <v>0.000213</v>
+        <v>2.43E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>0.012699999999999999</v>
-      </c>
-    </row>
-    <row r="12" ht="17.714" customHeight="true">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>18.100000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C12" s="4">
-        <v>10.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -839,24 +1157,24 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>-0.086900000000000005</v>
+        <v>-5.9799999999999999E-2</v>
       </c>
       <c r="K12" s="4">
-        <v>0.000243</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>0.010800000000000001</v>
-      </c>
-    </row>
-    <row r="13" ht="17.714" customHeight="true">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>19.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="C13" s="4">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -877,24 +1195,24 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>-0.059799999999999999</v>
+        <v>-0.03</v>
       </c>
       <c r="K13" s="4">
-        <v>0.00027300000000000002</v>
+        <v>3.01E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>0.012800000000000001</v>
-      </c>
-    </row>
-    <row r="14" ht="17.714" customHeight="true">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4">
-        <v>20.199999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="C14" s="4">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -915,24 +1233,24 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>-0.029999999999999999</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>0.000301</v>
+        <v>3.2899999999999997E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>0.0103</v>
-      </c>
-    </row>
-    <row r="15" ht="17.714" customHeight="true">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>21.199999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="C15" s="4">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -953,24 +1271,24 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>0.0029499999999999999</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="K15" s="4">
-        <v>0.00032899999999999997</v>
+        <v>3.68E-4</v>
       </c>
       <c r="L15" s="4">
-        <v>0.0129</v>
-      </c>
-    </row>
-    <row r="16" ht="17.714" customHeight="true">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4">
-        <v>22.199999999999999</v>
+        <v>23.3</v>
       </c>
       <c r="C16" s="4">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -991,24 +1309,24 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>0.039199999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="K16" s="4">
-        <v>0.000368</v>
+        <v>4.1100000000000002E-4</v>
       </c>
       <c r="L16" s="4">
-        <v>0.010999999999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="17.714" customHeight="true">
+        <v>7.7799999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>23.300000000000001</v>
+        <v>24.3</v>
       </c>
       <c r="C17" s="4">
-        <v>15.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1029,24 +1347,24 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>0.080000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="K17" s="4">
-        <v>0.00041100000000000002</v>
+        <v>4.3800000000000002E-4</v>
       </c>
       <c r="L17" s="4">
-        <v>0.0077799999999999996</v>
-      </c>
-    </row>
-    <row r="18" ht="17.714" customHeight="true">
+        <v>8.5400000000000007E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4">
-        <v>24.300000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="C18" s="4">
-        <v>16.600000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1067,24 +1385,24 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="K18" s="4">
-        <v>0.00043800000000000002</v>
+        <v>4.73E-4</v>
       </c>
       <c r="L18" s="4">
-        <v>0.0085400000000000007</v>
-      </c>
-    </row>
-    <row r="19" ht="17.714" customHeight="true">
+        <v>8.4499999999999992E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4">
-        <v>25.300000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="C19" s="4">
-        <v>17.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1105,24 +1423,24 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>0.17000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K19" s="4">
-        <v>0.000473</v>
+        <v>5.1800000000000001E-4</v>
       </c>
       <c r="L19" s="4">
-        <v>0.0084499999999999992</v>
-      </c>
-    </row>
-    <row r="20" ht="17.714" customHeight="true">
+        <v>5.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4">
-        <v>26.399999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="C20" s="4">
-        <v>18.600000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1143,24 +1461,24 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K20" s="4">
-        <v>0.00051800000000000001</v>
+        <v>5.5400000000000002E-4</v>
       </c>
       <c r="L20" s="4">
-        <v>0.0055100000000000001</v>
-      </c>
-    </row>
-    <row r="21" ht="17.714" customHeight="true">
+        <v>7.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4">
-        <v>27.399999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="C21" s="4">
-        <v>19.699999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1181,24 +1499,24 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="K21" s="4">
-        <v>0.00055400000000000002</v>
+        <v>5.9599999999999996E-4</v>
       </c>
       <c r="L21" s="4">
-        <v>0.0077200000000000003</v>
-      </c>
-    </row>
-    <row r="22" ht="17.714" customHeight="true">
+        <v>6.4099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4">
-        <v>28.399999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="C22" s="4">
-        <v>20.699999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1219,24 +1537,24 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>0.34000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="4">
-        <v>0.00059599999999999996</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="L22" s="4">
-        <v>0.0064099999999999999</v>
-      </c>
-    </row>
-    <row r="23" ht="17.714" customHeight="true">
+        <v>6.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4">
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="C23" s="4">
-        <v>21.699999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1257,24 +1575,24 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>0.40000000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="K23" s="4">
-        <v>0.00063000000000000003</v>
+        <v>6.6600000000000003E-4</v>
       </c>
       <c r="L23" s="4">
-        <v>0.0068700000000000002</v>
-      </c>
-    </row>
-    <row r="24" ht="17.714" customHeight="true">
+        <v>6.6899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="C24" s="4">
-        <v>22.800000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1295,24 +1613,24 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>0.46999999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="K24" s="4">
-        <v>0.00066600000000000003</v>
+        <v>7.0899999999999999E-4</v>
       </c>
       <c r="L24" s="4">
-        <v>0.0066899999999999998</v>
-      </c>
-    </row>
-    <row r="25" ht="17.714" customHeight="true">
+        <v>6.3299999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="4">
-        <v>31.5</v>
+        <v>32.6</v>
       </c>
       <c r="C25" s="4">
-        <v>23.800000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -1333,24 +1651,24 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>0.54000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="K25" s="4">
-        <v>0.00070899999999999999</v>
+        <v>7.2499999999999995E-4</v>
       </c>
       <c r="L25" s="4">
-        <v>0.0063299999999999997</v>
-      </c>
-    </row>
-    <row r="26" ht="17.714" customHeight="true">
+        <v>5.2300000000000003E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="4">
-        <v>32.600000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="C26" s="4">
-        <v>24.800000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1371,24 +1689,24 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>0.60999999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="K26" s="4">
-        <v>0.00072499999999999995</v>
+        <v>7.6900000000000004E-4</v>
       </c>
       <c r="L26" s="4">
-        <v>0.0052300000000000003</v>
-      </c>
-    </row>
-    <row r="27" ht="17.714" customHeight="true">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="4">
-        <v>33.600000000000001</v>
+        <v>34.6</v>
       </c>
       <c r="C27" s="4">
-        <v>25.899999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1409,24 +1727,24 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>0.68999999999999995</v>
+        <v>0.77</v>
       </c>
       <c r="K27" s="4">
-        <v>0.00076900000000000004</v>
+        <v>8.0699999999999999E-4</v>
       </c>
       <c r="L27" s="4">
-        <v>0.0076</v>
-      </c>
-    </row>
-    <row r="28" ht="17.714" customHeight="true">
+        <v>8.7899999999999992E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4">
-        <v>34.600000000000001</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="C28" s="4">
-        <v>26.899999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1447,24 +1765,24 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>0.77000000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="K28" s="4">
-        <v>0.00080699999999999999</v>
+        <v>8.5099999999999998E-4</v>
       </c>
       <c r="L28" s="4">
-        <v>0.0087899999999999992</v>
-      </c>
-    </row>
-    <row r="29" ht="17.714" customHeight="true">
+        <v>9.4199999999999996E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4">
-        <v>35.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C29" s="4">
-        <v>27.899999999999999</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -1485,24 +1803,24 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>0.85999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K29" s="4">
-        <v>0.00085099999999999998</v>
+        <v>9.41E-4</v>
       </c>
       <c r="L29" s="4">
-        <v>0.0094199999999999996</v>
-      </c>
-    </row>
-    <row r="30" ht="17.714" customHeight="true">
+        <v>9.5700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4">
-        <v>36.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C30" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -1523,454 +1841,454 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>0.94999999999999996</v>
+        <v>1.07</v>
       </c>
       <c r="K30" s="4">
-        <v>0.000941</v>
+        <v>2.3600000000000001E-3</v>
       </c>
       <c r="L30" s="4">
-        <v>0.0095700000000000004</v>
-      </c>
-    </row>
-    <row r="31" ht="17.714" customHeight="true">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4">
-        <v>37.700000000000003</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>52.3</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" s="4">
-        <v>1.0700000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="K31" s="4">
-        <v>0.0023600000000000001</v>
+        <v>8.1499999999999993E-3</v>
       </c>
       <c r="L31" s="4">
-        <v>0.70999999999999996</v>
-      </c>
-    </row>
-    <row r="32" ht="17.714" customHeight="true">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D32" s="4">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E32" s="4">
-        <v>52.299999999999997</v>
+        <v>48.3</v>
       </c>
       <c r="F32" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G32" s="4">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="H32" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I32" s="4">
         <v>5</v>
       </c>
       <c r="J32" s="4">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K32" s="4">
-        <v>0.0081499999999999993</v>
+        <v>9.1299999999999992E-3</v>
       </c>
       <c r="L32" s="4">
-        <v>0.068400000000000002</v>
-      </c>
-    </row>
-    <row r="33" ht="17.714" customHeight="true">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C33" s="4">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="E33" s="4">
-        <v>48.299999999999997</v>
+        <v>46.1</v>
       </c>
       <c r="F33" s="4">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="G33" s="4">
-        <v>0.79000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="4">
         <v>5</v>
       </c>
       <c r="J33" s="4">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="K33" s="4">
-        <v>0.0091299999999999992</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="L33" s="4">
-        <v>0.032000000000000001</v>
-      </c>
-    </row>
-    <row r="34" ht="17.714" customHeight="true">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C34" s="4">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D34" s="4">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="E34" s="4">
-        <v>46.100000000000001</v>
+        <v>45.1</v>
       </c>
       <c r="F34" s="4">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H34" s="4">
-        <v>0.10000000000000001</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="I34" s="4">
         <v>5</v>
       </c>
       <c r="J34" s="4">
-        <v>1.0800000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="K34" s="4">
-        <v>0.010800000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L34" s="4">
-        <v>0.028299999999999999</v>
-      </c>
-    </row>
-    <row r="35" ht="17.714" customHeight="true">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C35" s="4">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D35" s="4">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="E35" s="4">
-        <v>45.100000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="F35" s="4">
-        <v>0.20000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G35" s="4">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="H35" s="4">
-        <v>0.093799999999999994</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I35" s="4">
         <v>5</v>
       </c>
       <c r="J35" s="4">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K35" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="L35" s="4">
-        <v>0.037400000000000003</v>
-      </c>
-    </row>
-    <row r="36" ht="17.714" customHeight="true">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C36" s="4">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D36" s="4">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="E36" s="4">
-        <v>46.299999999999997</v>
+        <v>47.8</v>
       </c>
       <c r="F36" s="4">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="G36" s="4">
-        <v>1.5800000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="H36" s="4">
-        <v>0.092999999999999999</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="I36" s="4">
         <v>5</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="K36" s="4">
-        <v>0.015800000000000002</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="L36" s="4">
-        <v>0.0129</v>
-      </c>
-    </row>
-    <row r="37" ht="17.714" customHeight="true">
+        <v>8.9099999999999997E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C37" s="4">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D37" s="4">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E37" s="4">
-        <v>47.799999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="F37" s="4">
-        <v>0.32000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G37" s="4">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="H37" s="4">
-        <v>0.093399999999999997</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="I37" s="4">
         <v>5</v>
       </c>
       <c r="J37" s="4">
-        <v>0.96999999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="K37" s="4">
-        <v>0.019300000000000001</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="L37" s="4">
-        <v>0.00089099999999999997</v>
-      </c>
-    </row>
-    <row r="38" ht="17.714" customHeight="true">
+        <v>-1.49E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="4">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C38" s="4">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D38" s="4">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="E38" s="4">
-        <v>49.700000000000003</v>
+        <v>52.4</v>
       </c>
       <c r="F38" s="4">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="4">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="H38" s="4">
-        <v>0.094899999999999998</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="I38" s="4">
         <v>5</v>
       </c>
       <c r="J38" s="4">
-        <v>0.94999999999999996</v>
+        <v>0.92</v>
       </c>
       <c r="K38" s="4">
-        <v>0.023800000000000002</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="L38" s="4">
-        <v>-0.0149</v>
-      </c>
-    </row>
-    <row r="39" ht="17.714" customHeight="true">
+        <v>-3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="4">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C39" s="4">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D39" s="4">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="E39" s="4">
-        <v>52.399999999999999</v>
+        <v>55.6</v>
       </c>
       <c r="F39" s="4">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="G39" s="4">
-        <v>3.1499999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="H39" s="4">
-        <v>0.096600000000000005</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="I39" s="4">
         <v>5</v>
       </c>
       <c r="J39" s="4">
-        <v>0.92000000000000004</v>
+        <v>0.89</v>
       </c>
       <c r="K39" s="4">
-        <v>0.029000000000000001</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="L39" s="4">
-        <v>-0.039300000000000002</v>
-      </c>
-    </row>
-    <row r="40" ht="17.714" customHeight="true">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="4">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C40" s="4">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D40" s="4">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="E40" s="4">
-        <v>55.600000000000001</v>
+        <v>58.9</v>
       </c>
       <c r="F40" s="4">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="G40" s="4">
-        <v>3.96</v>
+        <v>4.99</v>
       </c>
       <c r="H40" s="4">
-        <v>0.099400000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I40" s="4">
         <v>5</v>
       </c>
       <c r="J40" s="4">
-        <v>0.89000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="K40" s="4">
-        <v>0.035400000000000001</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="L40" s="4">
-        <v>-0.060100000000000001</v>
-      </c>
-    </row>
-    <row r="41" ht="17.714" customHeight="true">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="4">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C41" s="4">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="D41" s="4">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="E41" s="4">
-        <v>58.899999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="F41" s="4">
-        <v>0.79000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4">
-        <v>4.9900000000000002</v>
+        <v>6.28</v>
       </c>
       <c r="H41" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I41" s="4">
         <v>5</v>
       </c>
       <c r="J41" s="4">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K41" s="4">
-        <v>0.043499999999999997</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="L41" s="4">
-        <v>-0.074999999999999997</v>
-      </c>
-    </row>
-    <row r="42" ht="17.714" customHeight="true">
+        <v>-7.4099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C42" s="4">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D42" s="4">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="E42" s="4">
-        <v>62.399999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="G42" s="4">
-        <v>6.2800000000000002</v>
+        <v>7.91</v>
       </c>
       <c r="H42" s="4">
         <v>0.11</v>
@@ -1979,36 +2297,36 @@
         <v>5</v>
       </c>
       <c r="J42" s="4">
-        <v>0.84999999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="K42" s="4">
-        <v>0.053699999999999998</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="L42" s="4">
-        <v>-0.074099999999999999</v>
-      </c>
-    </row>
-    <row r="43" ht="17.714" customHeight="true">
+        <v>-7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="4">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C43" s="4">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D43" s="4">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="E43" s="4">
-        <v>66.299999999999997</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F43" s="4">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="G43" s="4">
-        <v>7.9100000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H43" s="4">
         <v>0.11</v>
@@ -2017,74 +2335,74 @@
         <v>5</v>
       </c>
       <c r="J43" s="4">
-        <v>0.83999999999999997</v>
+        <v>0.83</v>
       </c>
       <c r="K43" s="4">
-        <v>0.066500000000000004</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="L43" s="4">
-        <v>-0.079500000000000001</v>
-      </c>
-    </row>
-    <row r="44" ht="17.714" customHeight="true">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="4">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C44" s="4">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D44" s="4">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="E44" s="4">
-        <v>70.400000000000006</v>
+        <v>74.7</v>
       </c>
       <c r="F44" s="4">
-        <v>1.5800000000000001</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4">
-        <v>9.9600000000000009</v>
+        <v>12.5</v>
       </c>
       <c r="H44" s="4">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I44" s="4">
         <v>5</v>
       </c>
       <c r="J44" s="4">
-        <v>0.82999999999999996</v>
+        <v>0.82</v>
       </c>
       <c r="K44" s="4">
-        <v>0.082699999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="L44" s="4">
-        <v>-0.10000000000000001</v>
-      </c>
-    </row>
-    <row r="45" ht="17.714" customHeight="true">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C45" s="4">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D45" s="4">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="E45" s="4">
-        <v>74.700000000000003</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="F45" s="4">
-        <v>2</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G45" s="4">
-        <v>12.5</v>
+        <v>15.8</v>
       </c>
       <c r="H45" s="4">
         <v>0.12</v>
@@ -2093,74 +2411,74 @@
         <v>5</v>
       </c>
       <c r="J45" s="4">
-        <v>0.81999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="K45" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L45" s="4">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="46" ht="17.714" customHeight="true">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C46" s="4">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D46" s="4">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="E46" s="4">
-        <v>79.400000000000006</v>
+        <v>84.5</v>
       </c>
       <c r="F46" s="4">
-        <v>2.5099999999999998</v>
+        <v>3.16</v>
       </c>
       <c r="G46" s="4">
-        <v>15.800000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H46" s="4">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I46" s="4">
         <v>5</v>
       </c>
       <c r="J46" s="4">
-        <v>0.82999999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="K46" s="4">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="L46" s="4">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="47" ht="17.714" customHeight="true">
+    <row r="47" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C47" s="4">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D47" s="4">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E47" s="4">
-        <v>84.5</v>
+        <v>90</v>
       </c>
       <c r="F47" s="4">
-        <v>3.1600000000000001</v>
+        <v>3.98</v>
       </c>
       <c r="G47" s="4">
-        <v>19.899999999999999</v>
+        <v>25</v>
       </c>
       <c r="H47" s="4">
         <v>0.13</v>
@@ -2169,510 +2487,510 @@
         <v>5</v>
       </c>
       <c r="J47" s="4">
-        <v>0.83999999999999997</v>
+        <v>0.87</v>
       </c>
       <c r="K47" s="4">
-        <v>0.17000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="L47" s="4">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="48" ht="17.714" customHeight="true">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C48" s="4">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D48" s="4">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="E48" s="4">
-        <v>90</v>
+        <v>95.9</v>
       </c>
       <c r="F48" s="4">
-        <v>3.98</v>
+        <v>5.01</v>
       </c>
       <c r="G48" s="4">
-        <v>25</v>
+        <v>31.5</v>
       </c>
       <c r="H48" s="4">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I48" s="4">
         <v>5</v>
       </c>
       <c r="J48" s="4">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
       <c r="K48" s="4">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="L48" s="4">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="49" ht="17.714" customHeight="true">
+    <row r="49" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C49" s="4">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D49" s="4">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="E49" s="4">
-        <v>95.900000000000006</v>
+        <v>102</v>
       </c>
       <c r="F49" s="4">
-        <v>5.0099999999999998</v>
+        <v>6.31</v>
       </c>
       <c r="G49" s="4">
-        <v>31.5</v>
+        <v>39.6</v>
       </c>
       <c r="H49" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I49" s="4">
         <v>5</v>
       </c>
       <c r="J49" s="4">
-        <v>0.93999999999999995</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K49" s="4">
-        <v>0.29999999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="L49" s="4">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="50" ht="17.714" customHeight="true">
+    <row r="50" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C50" s="4">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D50" s="4">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="E50" s="4">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F50" s="4">
-        <v>6.3099999999999996</v>
+        <v>7.94</v>
       </c>
       <c r="G50" s="4">
-        <v>39.600000000000001</v>
+        <v>49.9</v>
       </c>
       <c r="H50" s="4">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I50" s="4">
         <v>5</v>
       </c>
       <c r="J50" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="K50" s="4">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="L50" s="4">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="51" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="4">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C51" s="4">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D51" s="4">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E51" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F51" s="4">
-        <v>7.9400000000000004</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4">
-        <v>49.899999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="H51" s="4">
-        <v>0.14999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="I51" s="4">
         <v>5</v>
       </c>
       <c r="J51" s="4">
-        <v>1.53</v>
+        <v>3.45</v>
       </c>
       <c r="K51" s="4">
-        <v>0.76000000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="L51" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="52" ht="17.714" customHeight="true">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C52" s="4">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D52" s="4">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="E52" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="4">
-        <v>10</v>
+        <v>12.6</v>
       </c>
       <c r="G52" s="4">
-        <v>62.799999999999997</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H52" s="4">
         <v>0.16</v>
       </c>
       <c r="I52" s="4">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="J52" s="4">
-        <v>3.4500000000000002</v>
+        <v>1.63</v>
       </c>
       <c r="K52" s="4">
-        <v>2.1699999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="L52" s="4">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="53" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C53" s="4">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D53" s="4">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="E53" s="4">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F53" s="4">
-        <v>12.6</v>
+        <v>15.8</v>
       </c>
       <c r="G53" s="4">
-        <v>79.099999999999994</v>
+        <v>99.6</v>
       </c>
       <c r="H53" s="4">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I53" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="J53" s="4">
-        <v>1.6299999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K53" s="4">
-        <v>1.29</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L53" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="54" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="4">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C54" s="4">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D54" s="4">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="E54" s="4">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="F54" s="4">
-        <v>15.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4">
-        <v>99.599999999999994</v>
+        <v>125</v>
       </c>
       <c r="H54" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="I54" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="J54" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K54" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="L54" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="55" ht="17.714" customHeight="true">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="4">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C55" s="4">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D55" s="4">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="E55" s="4">
-        <v>184</v>
+        <v>55.1</v>
       </c>
       <c r="F55" s="4">
-        <v>20</v>
+        <v>25.1</v>
       </c>
       <c r="G55" s="4">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="H55" s="4">
-        <v>0.23999999999999999</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="I55" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="J55" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="K55" s="4">
-        <v>0.35999999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="L55" s="4">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="56" ht="17.714" customHeight="true">
+    <row r="56" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C56" s="4">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D56" s="4">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E56" s="4">
-        <v>55.100000000000001</v>
+        <v>36.4</v>
       </c>
       <c r="F56" s="4">
-        <v>25.100000000000001</v>
+        <v>31.6</v>
       </c>
       <c r="G56" s="4">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="H56" s="4">
-        <v>0.068099999999999994</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="I56" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J56" s="4">
-        <v>0.14999999999999999</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="K56" s="4">
-        <v>0.23999999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="L56" s="4">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="57" ht="17.714" customHeight="true">
+    <row r="57" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C57" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D57" s="4">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="E57" s="4">
-        <v>36.399999999999999</v>
+        <v>42</v>
       </c>
       <c r="F57" s="4">
-        <v>31.600000000000001</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="G57" s="4">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="H57" s="4">
-        <v>0.045100000000000001</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="I57" s="4">
         <v>4.9800000000000004</v>
       </c>
       <c r="J57" s="4">
-        <v>0.088400000000000006</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="K57" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="L57" s="4">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="58" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C58" s="4">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D58" s="4">
-        <v>833</v>
+        <v>531</v>
       </c>
       <c r="E58" s="4">
-        <v>42</v>
+        <v>72.3</v>
       </c>
       <c r="F58" s="4">
-        <v>39.799999999999997</v>
+        <v>50.1</v>
       </c>
       <c r="G58" s="4">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="H58" s="4">
-        <v>0.053699999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="I58" s="4">
-        <v>4.9800000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="J58" s="4">
-        <v>0.052999999999999999</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="K58" s="4">
-        <v>0.13</v>
+        <v>9.98E-2</v>
       </c>
       <c r="L58" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="59" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="4">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C59" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D59" s="4">
-        <v>531</v>
+        <v>223</v>
       </c>
       <c r="E59" s="4">
-        <v>72.299999999999997</v>
+        <v>170</v>
       </c>
       <c r="F59" s="4">
-        <v>50.100000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="G59" s="4">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="H59" s="4">
-        <v>0.29999999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="I59" s="4">
-        <v>4.9699999999999998</v>
+        <v>4.97</v>
       </c>
       <c r="J59" s="4">
-        <v>0.031699999999999999</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="K59" s="4">
-        <v>0.0998</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="L59" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="60" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="4">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C60" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D60" s="4">
-        <v>223</v>
+        <v>631</v>
       </c>
       <c r="E60" s="4">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="F60" s="4">
-        <v>63.100000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G60" s="4">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="H60" s="4">
-        <v>1.8100000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="I60" s="4">
-        <v>4.9699999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="J60" s="4">
-        <v>0.019199999999999998</v>
+        <v>1.21E-2</v>
       </c>
       <c r="K60" s="4">
-        <v>0.075899999999999995</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="L60" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="61" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -2683,80 +3001,80 @@
         <v>412</v>
       </c>
       <c r="D61" s="4">
-        <v>631</v>
+        <v>1650</v>
       </c>
       <c r="E61" s="4">
-        <v>299</v>
+        <v>1040</v>
       </c>
       <c r="F61" s="4">
-        <v>79.400000000000006</v>
+        <v>100</v>
       </c>
       <c r="G61" s="4">
-        <v>499</v>
+        <v>628</v>
       </c>
       <c r="H61" s="4">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="I61" s="4">
-        <v>4.96</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J61" s="4">
-        <v>0.0121</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K61" s="4">
-        <v>0.060299999999999999</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="L61" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="62" ht="17.714" customHeight="true">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="4">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C62" s="4">
-        <v>412</v>
+        <v>6.01</v>
       </c>
       <c r="D62" s="4">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="I62" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0.0077000000000000002</v>
+        <v>294</v>
+      </c>
+      <c r="J62" s="5">
+        <v>171000</v>
       </c>
       <c r="K62" s="4">
-        <v>0.048399999999999999</v>
+        <v>300</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="63" ht="17.714" customHeight="true">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="4">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C63" s="4">
-        <v>6.0099999999999998</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -2774,27 +3092,27 @@
         <v>0</v>
       </c>
       <c r="I63" s="4">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J63" s="5">
-        <v>171000</v>
+        <v>351000</v>
       </c>
       <c r="K63" s="4">
         <v>300</v>
       </c>
       <c r="L63" s="4">
-        <v>0.0111</v>
-      </c>
-    </row>
-    <row r="64" ht="17.714" customHeight="true">
+        <v>2.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="4">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C64" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -2812,27 +3130,27 @@
         <v>0</v>
       </c>
       <c r="I64" s="4">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J64" s="5">
-        <v>351000</v>
+        <v>531000</v>
       </c>
       <c r="K64" s="4">
         <v>300</v>
       </c>
       <c r="L64" s="4">
-        <v>0.024899999999999999</v>
-      </c>
-    </row>
-    <row r="65" ht="17.714" customHeight="true">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C65" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -2853,24 +3171,24 @@
         <v>298</v>
       </c>
       <c r="J65" s="5">
-        <v>531000</v>
+        <v>711000</v>
       </c>
       <c r="K65" s="4">
         <v>300</v>
       </c>
       <c r="L65" s="4">
-        <v>0.0126</v>
-      </c>
-    </row>
-    <row r="66" ht="17.714" customHeight="true">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C66" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -2888,27 +3206,27 @@
         <v>0</v>
       </c>
       <c r="I66" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J66" s="5">
-        <v>711000</v>
+        <v>891000</v>
       </c>
       <c r="K66" s="4">
         <v>300</v>
       </c>
       <c r="L66" s="4">
-        <v>0.0184</v>
-      </c>
-    </row>
-    <row r="67" ht="17.714" customHeight="true">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="4">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C67" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -2926,27 +3244,27 @@
         <v>0</v>
       </c>
       <c r="I67" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J67" s="5">
-        <v>891000</v>
+        <v>1070000</v>
       </c>
       <c r="K67" s="4">
         <v>300</v>
       </c>
       <c r="L67" s="4">
-        <v>0.020199999999999999</v>
-      </c>
-    </row>
-    <row r="68" ht="17.714" customHeight="true">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C68" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -2967,24 +3285,24 @@
         <v>296</v>
       </c>
       <c r="J68" s="5">
-        <v>1070000</v>
+        <v>1250000</v>
       </c>
       <c r="K68" s="4">
         <v>300</v>
       </c>
       <c r="L68" s="4">
-        <v>0.013599999999999999</v>
-      </c>
-    </row>
-    <row r="69" ht="17.714" customHeight="true">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C69" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -3002,27 +3320,27 @@
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J69" s="5">
-        <v>1250000</v>
+        <v>1430000</v>
       </c>
       <c r="K69" s="4">
         <v>300</v>
       </c>
       <c r="L69" s="4">
-        <v>0.023599999999999999</v>
-      </c>
-    </row>
-    <row r="70" ht="17.714" customHeight="true">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C70" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -3043,24 +3361,24 @@
         <v>295</v>
       </c>
       <c r="J70" s="5">
-        <v>1430000</v>
+        <v>1610000</v>
       </c>
       <c r="K70" s="4">
         <v>300</v>
       </c>
       <c r="L70" s="4">
-        <v>0.017299999999999999</v>
-      </c>
-    </row>
-    <row r="71" ht="17.714" customHeight="true">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C71" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
@@ -3081,24 +3399,24 @@
         <v>295</v>
       </c>
       <c r="J71" s="5">
-        <v>1610000</v>
+        <v>1790000</v>
       </c>
       <c r="K71" s="4">
         <v>300</v>
       </c>
       <c r="L71" s="4">
-        <v>0.0201</v>
-      </c>
-    </row>
-    <row r="72" ht="17.714" customHeight="true">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="4">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C72" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -3116,67 +3434,24 @@
         <v>0</v>
       </c>
       <c r="I72" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J72" s="5">
-        <v>1790000</v>
+        <v>1970000</v>
       </c>
       <c r="K72" s="4">
         <v>300</v>
       </c>
       <c r="L72" s="4">
-        <v>0.0132</v>
-      </c>
-    </row>
-    <row r="73" ht="17.714" customHeight="true">
-      <c r="A73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="4">
-        <v>543</v>
-      </c>
-      <c r="C73" s="4">
-        <v>66</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <v>297</v>
-      </c>
-      <c r="J73" s="5">
-        <v>1970000</v>
-      </c>
-      <c r="K73" s="4">
-        <v>300</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0.019099999999999999</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="34" max="16383" man="true"/>
-    <brk id="73" max="16383" man="true"/>
+    <brk id="33" max="16383" man="1"/>
+    <brk id="72" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>